--- a/Scripts/Data/RenamingScheme_2.xlsx
+++ b/Scripts/Data/RenamingScheme_2.xlsx
@@ -27811,8 +27811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E418" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q429"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34141,7 +34141,7 @@
         <v>"JI804"="breath_2004",</v>
       </c>
       <c r="Q379" s="23" t="str">
-        <f t="shared" ref="Q375:Q429" si="16">E379</f>
+        <f t="shared" ref="Q379:Q426" si="16">E379</f>
         <v>"breath_2004",</v>
       </c>
     </row>
@@ -41445,7 +41445,7 @@
   <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="I26:J26"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
